--- a/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">A different color than default</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">A different color than default with two footnotes in cells</t>
   </si>
   <si>
     <t xml:space="preserve">homeworld</t>
@@ -41,30 +41,36 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
+    <t xml:space="preserve">black (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Missing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
-    <t xml:space="preserve">(Missing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">feminine</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">masculine (b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">masculine</t>
   </si>
   <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -81,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Some remark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) Some comment.</t>
   </si>
 </sst>
 </file>
@@ -88,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +126,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -199,6 +216,20 @@
       </top>
       <bottom style="medium">
         <color rgb="FFFFDB99"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
@@ -219,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,7 +270,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,19 +622,19 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -611,412 +645,434 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="C4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="C7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>16</v>
+      <c r="D8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>17</v>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="n">
+      <c r="C10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>19</v>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
+      <c r="F11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>16</v>
+      <c r="C12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="C13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>16</v>
+      <c r="F15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="C16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="G21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_5.xlsx
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,11 +126,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
